--- a/Governeye/src/config/TestData.xlsx
+++ b/Governeye/src/config/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="22740" windowHeight="7515" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="7515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Navigate" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="LoginTest1" sheetId="5" r:id="rId5"/>
     <sheet name="demotours" sheetId="6" r:id="rId6"/>
     <sheet name="Post" sheetId="7" r:id="rId7"/>
+    <sheet name="Moderator" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Wait10K</t>
   </si>
@@ -79,9 +80,6 @@
     <t>Networkdropdown</t>
   </si>
   <si>
-    <t>Gurgaon</t>
-  </si>
-  <si>
     <t>Languagedropdown</t>
   </si>
   <si>
@@ -141,12 +139,18 @@
   <si>
     <t>citizen2@gmail.com</t>
   </si>
+  <si>
+    <t>moderator@test.com</t>
+  </si>
+  <si>
+    <t>Saharanpur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,12 +495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -508,24 +510,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -541,19 +543,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -561,15 +563,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -581,20 +583,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,20 +628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -647,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -661,19 +663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -687,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -707,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -729,74 +731,74 @@
     <col min="11" max="11" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
       <c r="H2">
         <v>10000</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>600</v>
@@ -808,4 +810,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Governeye/src/config/TestData.xlsx
+++ b/Governeye/src/config/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="7515" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="3165" windowWidth="20730" windowHeight="7095" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Navigate" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,17 @@
     <sheet name="demotours" sheetId="6" r:id="rId6"/>
     <sheet name="Post" sheetId="7" r:id="rId7"/>
     <sheet name="Moderator" sheetId="8" r:id="rId8"/>
+    <sheet name="Signup" sheetId="9" r:id="rId9"/>
+    <sheet name="Forgot" sheetId="10" r:id="rId10"/>
+    <sheet name="updateimg" sheetId="11" r:id="rId11"/>
+    <sheet name="changepass" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Wait10K</t>
   </si>
@@ -137,20 +141,101 @@
     <t>Wait</t>
   </si>
   <si>
-    <t>citizen2@gmail.com</t>
-  </si>
-  <si>
     <t>moderator@test.com</t>
   </si>
   <si>
-    <t>Saharanpur</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>What is your favorite color?</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>usertest1</t>
+  </si>
+  <si>
+    <t>photofilelocation</t>
+  </si>
+  <si>
+    <t>D:\Lightshot\GST.jpg</t>
+  </si>
+  <si>
+    <t>Postphototext</t>
+  </si>
+  <si>
+    <t>This is an photo post</t>
+  </si>
+  <si>
+    <t>forgotusername</t>
+  </si>
+  <si>
+    <t>forgotanswer</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>ankit</t>
+  </si>
+  <si>
+    <t>imagefilelocation</t>
+  </si>
+  <si>
+    <t>sidd1</t>
+  </si>
+  <si>
+    <t>D:\Lightshot\profile.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +275,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -286,6 +372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -320,6 +407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,12 +583,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -509,25 +597,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -543,19 +723,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -563,40 +743,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -607,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,20 +805,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -649,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -663,19 +840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -689,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -709,14 +886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -728,10 +905,12 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -768,10 +947,16 @@
       <c r="L1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -801,7 +986,13 @@
         <v>36</v>
       </c>
       <c r="L2">
-        <v>600</v>
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -813,20 +1004,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -834,9 +1025,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -848,4 +1039,104 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Governeye/src/config/TestData.xlsx
+++ b/Governeye/src/config/TestData.xlsx
@@ -4,28 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3165" windowWidth="20730" windowHeight="7095" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="3225" windowWidth="20730" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Navigate" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="SigninTest" sheetId="3" r:id="rId3"/>
-    <sheet name="CapLogin" sheetId="4" r:id="rId4"/>
-    <sheet name="LoginTest1" sheetId="5" r:id="rId5"/>
-    <sheet name="demotours" sheetId="6" r:id="rId6"/>
-    <sheet name="Post" sheetId="7" r:id="rId7"/>
-    <sheet name="Moderator" sheetId="8" r:id="rId8"/>
-    <sheet name="Signup" sheetId="9" r:id="rId9"/>
-    <sheet name="Forgot" sheetId="10" r:id="rId10"/>
-    <sheet name="updateimg" sheetId="11" r:id="rId11"/>
-    <sheet name="changepass" sheetId="12" r:id="rId12"/>
+    <sheet name="SigninTest" sheetId="3" r:id="rId2"/>
+    <sheet name="Post" sheetId="7" r:id="rId3"/>
+    <sheet name="Moderator" sheetId="8" r:id="rId4"/>
+    <sheet name="Signup" sheetId="9" r:id="rId5"/>
+    <sheet name="Forgot" sheetId="10" r:id="rId6"/>
+    <sheet name="updateimg" sheetId="11" r:id="rId7"/>
+    <sheet name="changepass" sheetId="12" r:id="rId8"/>
+    <sheet name="Validation" sheetId="13" r:id="rId9"/>
+    <sheet name="Role" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Wait10K</t>
   </si>
@@ -36,51 +34,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>defra-user-1@kainos.com</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>signin</t>
-  </si>
-  <si>
-    <t>Sign in222</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>pass_word</t>
-  </si>
-  <si>
-    <t>tutorial</t>
-  </si>
-  <si>
     <t>Wait5K</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>mobilenumber</t>
-  </si>
-  <si>
-    <t>9871466622</t>
-  </si>
-  <si>
     <t>Networkdropdown</t>
   </si>
   <si>
@@ -192,9 +148,6 @@
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>usertest1</t>
-  </si>
-  <si>
     <t>photofilelocation</t>
   </si>
   <si>
@@ -219,16 +172,49 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>ankit</t>
-  </si>
-  <si>
     <t>imagefilelocation</t>
   </si>
   <si>
-    <t>sidd1</t>
-  </si>
-  <si>
     <t>D:\Lightshot\profile.jpg</t>
+  </si>
+  <si>
+    <t>currentpass</t>
+  </si>
+  <si>
+    <t>newpass</t>
+  </si>
+  <si>
+    <t>confirmpass</t>
+  </si>
+  <si>
+    <t>changeanswer</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>rolepassword</t>
+  </si>
+  <si>
+    <t>governeye007</t>
+  </si>
+  <si>
+    <t>roleusername</t>
+  </si>
+  <si>
+    <t>ankit3</t>
+  </si>
+  <si>
+    <t>roleselect</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>likecolour</t>
+  </si>
+  <si>
+    <t>#639808</t>
   </si>
 </sst>
 </file>
@@ -275,12 +261,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -586,7 +569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,168 +583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="K2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -769,128 +592,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,87 +695,87 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>10000</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1003,12 +786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,10 +810,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1041,12 +824,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,76 +848,228 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <v>5000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="5">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
